--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฮ(130).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฮ(130).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C3A1B1-5E2A-C949-BAAF-86DB2CFDF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{08C3A1B1-5E2A-C949-BAAF-86DB2CFDF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EF01D9-B620-4109-A3AD-A63D5307F568}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2715" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,9 +421,6 @@
     <t>โฮกฮาก</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๔๔ เรียกว่า ฮอ นกฮูก เป็นอักษรต่ำ ตัวสุดท้ายของพยัญชนะไทย ใช้เป็นพยัญชนะต้น.</t>
-  </si>
-  <si>
     <t>น. ชาวจีนในมณฑลฮกเกี้ยนของประเทศจีน, ชาวจีนที่มีถิ่นฐานเดิมอยู่ในมณฑลฮกเกี้ยน.</t>
   </si>
   <si>
@@ -914,6 +911,9 @@
   </si>
   <si>
     <t>น. สารประกอบอนินทรีย์ชนิดหนึ่ง มีสูตร H_2O_2 ลักษณะเป็นของเหลว ใส ไม่มีสี ใช้ประโยชน์เป็นยาล้างเชื้อโรค และตัวฟอกจาง.</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๔๔ เรียกว่า ฮอ นกฮูก เป็นอักษรต่ำ ตัวสุดท้ายของพยัญชนะไทย ใช้เป็นพยัญชนะต้น.</t>
   </si>
 </sst>
 </file>
@@ -1292,19 +1292,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,1149 +1315,1149 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
